--- a/APM files/137703337/137703337 IMPORT 1 PS&NS - deactivation.xlsx
+++ b/APM files/137703337/137703337 IMPORT 1 PS&NS - deactivation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/137703337/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D9CA0A-CABE-8142-966F-58CFFB8A04F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D9570B-3E30-3A40-A4B9-4575131A241C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4123,4 +4123,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{03ef5274-90b8-4b3f-8a76-b4c36a43e904}" enabled="1" method="Standard" siteId="{61e6eeb3-5fd7-4aaa-ae3c-61e8deb09b79}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>